--- a/data/trans_camb/P19C07-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C07-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P19C07-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C07-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,18</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,32</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,27; 0,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,76; 0,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,86; 1,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,01; -0,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,37; 1,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,13; 0,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,18; -0,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 0,45</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,47; 0,78</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,12%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,12%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,38%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-39,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,64%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,56%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,76; 54,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,83; 26,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,26; 106,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,74; -0,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,56; 49,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,28; 37,47</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,46; -5,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,09; 19,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,14; 31,28</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 1,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,89; 0,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 0,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 2,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,45; 1,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 1,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 1,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,29; 0,72</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,24; 0,83</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,56%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,34%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,6%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,55; 36,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,39; 28,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,87; 25,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,47; 66,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,96; 43,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,19; 52,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,54; 34,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,81; 21,38</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,62; 24,2</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 3,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,5; 0,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,17; 2,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 5,16</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 3,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,79; 5,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,04; 3,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,78; 1,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,11; 2,97</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,47%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,72%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>112,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,42%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>148,77%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,57%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,58%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,25%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,57; 210,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,15; 41,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,87; 105,97</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,3; 420,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,13; 335,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,71; 473,31</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,6; 215,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,55; 69,19</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,61; 159,2</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,02</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,23</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 0,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,52; 0,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,22; 0,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 1,14</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,81; 1,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 1,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,69; 0,77</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 0,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 0,96</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,55%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,87%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,16%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,01%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,58%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,94; 29,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,5; 13,31</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,17; 29,7</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,55; 37,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,38; 35,44</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,2; 52,94</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,62; 24,92</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,88; 15,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,99; 31,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C07-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C07-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,36</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 1,82</t>
+          <t>-1,94; 1,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 0,87</t>
+          <t>-2,11; 0,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 0,78</t>
+          <t>-1,51; 0,73</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,12%</t>
+          <t>-5,01%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-16,11%</t>
+          <t>-15,99%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-10,56%</t>
+          <t>-11,92%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-62,26; 106,94</t>
+          <t>-64,98; 96,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,28; 37,47</t>
+          <t>-47,32; 34,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-41,14; 31,28</t>
+          <t>-41,73; 29,19</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,18</t>
+          <t>-0,44</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 0,89</t>
+          <t>-2,31; 0,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 1,72</t>
+          <t>-1,95; 1,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 0,83</t>
+          <t>-1,61; 0,66</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-15,56%</t>
+          <t>-17,52%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>-4,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-4,6%</t>
+          <t>-10,94%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-43,87; 25,97</t>
+          <t>-49,85; 28,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,19; 52,08</t>
+          <t>-40,05; 38,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-26,62; 24,2</t>
+          <t>-35,47; 18,72</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>1,69</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 2,01</t>
+          <t>-2,11; 2,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,79; 5,18</t>
+          <t>0,97; 5,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 2,97</t>
+          <t>-0,06; 3,07</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>148,77%</t>
+          <t>156,54%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>62,25%</t>
+          <t>65,3%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,87; 105,97</t>
+          <t>-48,16; 106,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,71; 473,31</t>
+          <t>19,86; 505,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 159,2</t>
+          <t>-3,06; 164,42</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,08</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 0,83</t>
+          <t>-1,46; 0,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 1,58</t>
+          <t>-0,69; 1,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 0,96</t>
+          <t>-0,72; 0,87</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-6,16%</t>
+          <t>-7,55%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>2,41%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-31,17; 29,7</t>
+          <t>-37,74; 28,35</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 52,94</t>
+          <t>-18,0; 43,65</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-13,99; 31,33</t>
+          <t>-19,19; 27,3</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C07-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C07-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 0,87</t>
+          <t>-2,16; 0,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 0,2</t>
+          <t>-2,85; 0,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 1,72</t>
+          <t>-1,7; 1,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,01; -0,12</t>
+          <t>-2,81; -0,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 1,24</t>
+          <t>-2,32; 1,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 0,83</t>
+          <t>-2,05; 0,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,18; -0,19</t>
+          <t>-2,24; -0,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 0,45</t>
+          <t>-2,08; 0,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 0,73</t>
+          <t>-1,57; 0,71</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-68,76; 54,43</t>
+          <t>-68,62; 55,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-83,83; 26,37</t>
+          <t>-84,91; 40,73</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-64,98; 96,92</t>
+          <t>-56,69; 106,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-67,74; -0,52</t>
+          <t>-67,98; 2,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,56; 49,34</t>
+          <t>-59,48; 46,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,32; 34,18</t>
+          <t>-47,59; 33,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-61,46; -5,77</t>
+          <t>-61,81; -6,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-58,09; 19,47</t>
+          <t>-60,02; 16,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-41,73; 29,19</t>
+          <t>-42,84; 31,18</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 1,17</t>
+          <t>-1,65; 1,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 0,91</t>
+          <t>-1,93; 1,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 0,88</t>
+          <t>-2,52; 1,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,16</t>
+          <t>-0,81; 2,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 1,35</t>
+          <t>-1,32; 1,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 1,31</t>
+          <t>-1,7; 1,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 1,22</t>
+          <t>-0,96; 1,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 0,72</t>
+          <t>-1,29; 0,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,66</t>
+          <t>-1,49; 0,67</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,55; 36,78</t>
+          <t>-34,98; 36,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-38,39; 28,39</t>
+          <t>-38,72; 31,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-49,85; 28,33</t>
+          <t>-50,63; 29,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 66,89</t>
+          <t>-19,59; 68,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,96; 43,72</t>
+          <t>-28,25; 39,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,05; 38,61</t>
+          <t>-36,26; 38,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,54; 34,12</t>
+          <t>-21,47; 33,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-27,81; 21,38</t>
+          <t>-26,91; 23,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-35,47; 18,72</t>
+          <t>-33,47; 18,45</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 3,92</t>
+          <t>-1,06; 3,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 0,51</t>
+          <t>-3,37; 0,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 2,04</t>
+          <t>-1,84; 2,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 5,16</t>
+          <t>-0,41; 4,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 3,15</t>
+          <t>-1,13; 3,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 5,42</t>
+          <t>1,03; 5,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,04; 3,67</t>
+          <t>0,09; 3,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 1,26</t>
+          <t>-1,81; 1,23</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 3,07</t>
+          <t>0,13; 3,16</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,57; 210,59</t>
+          <t>-29,39; 219,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-79,15; 41,77</t>
+          <t>-78,52; 38,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,16; 106,04</t>
+          <t>-45,11; 121,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-21,3; 420,41</t>
+          <t>-20,43; 391,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-43,13; 335,52</t>
+          <t>-45,77; 262,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>19,86; 505,84</t>
+          <t>23,21; 472,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 215,58</t>
+          <t>-0,07; 200,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-52,55; 69,19</t>
+          <t>-52,17; 66,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 164,42</t>
+          <t>-0,68; 175,94</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 0,85</t>
+          <t>-1,04; 0,88</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 0,38</t>
+          <t>-1,55; 0,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 0,86</t>
+          <t>-1,41; 0,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,14</t>
+          <t>-0,93; 1,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 1,09</t>
+          <t>-1,01; 0,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 1,35</t>
+          <t>-0,71; 1,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 0,77</t>
+          <t>-0,63; 0,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 0,45</t>
+          <t>-0,93; 0,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 0,87</t>
+          <t>-0,62; 0,88</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,94; 29,75</t>
+          <t>-26,32; 32,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-38,5; 13,31</t>
+          <t>-38,73; 14,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-37,74; 28,35</t>
+          <t>-37,43; 27,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-19,55; 37,93</t>
+          <t>-23,32; 37,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,38; 35,44</t>
+          <t>-24,94; 32,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,0; 43,65</t>
+          <t>-17,38; 45,23</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-17,62; 24,92</t>
+          <t>-16,83; 23,68</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-23,88; 15,58</t>
+          <t>-24,15; 15,61</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-19,19; 27,3</t>
+          <t>-16,66; 28,5</t>
         </is>
       </c>
     </row>
